--- a/data-raw/clinical_data.xlsx
+++ b/data-raw/clinical_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/465700ee164b438d/Hansen/Family_study/familyStudyPackage/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="13_ncr:1_{92301303-4E1E-C94D-B0AB-6BCCE15F4CD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5A05D80C-CA75-CF45-8D5F-9C5B8C00C053}"/>
+  <xr:revisionPtr revIDLastSave="14" documentId="13_ncr:1_{92301303-4E1E-C94D-B0AB-6BCCE15F4CD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DAB6AC02-AEE7-1947-A8A6-BF227E236C68}"/>
   <bookViews>
     <workbookView xWindow="-15900" yWindow="-28300" windowWidth="34400" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -179,9 +179,6 @@
   </si>
   <si>
     <t>WBSI</t>
-  </si>
-  <si>
-    <t>Disposition index (WBSI_CIR)</t>
   </si>
   <si>
     <t>BIGG_SI_t_0_60_120</t>
@@ -567,6 +564,9 @@
   <si>
     <t>sourceId</t>
   </si>
+  <si>
+    <t>DI</t>
+  </si>
 </sst>
 </file>
 
@@ -779,7 +779,7 @@
     <tableColumn id="52" xr3:uid="{00000000-0010-0000-0000-000034000000}" name="Insulinogenic_index"/>
     <tableColumn id="53" xr3:uid="{00000000-0010-0000-0000-000035000000}" name="CIR"/>
     <tableColumn id="54" xr3:uid="{00000000-0010-0000-0000-000036000000}" name="WBSI"/>
-    <tableColumn id="55" xr3:uid="{00000000-0010-0000-0000-000037000000}" name="Disposition index (WBSI_CIR)"/>
+    <tableColumn id="55" xr3:uid="{00000000-0010-0000-0000-000037000000}" name="DI"/>
     <tableColumn id="56" xr3:uid="{00000000-0010-0000-0000-000038000000}" name="BIGG_SI_t_0_60_120"/>
     <tableColumn id="57" xr3:uid="{00000000-0010-0000-0000-000039000000}" name="BIGTT_AIR_t_0_60_120"/>
     <tableColumn id="58" xr3:uid="{00000000-0010-0000-0000-00003A000000}" name="SNP_PPARGC1A_rs8192678"/>
@@ -1111,8 +1111,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BF125"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" topLeftCell="AS1" workbookViewId="0">
+      <selection activeCell="AZ17" sqref="AZ17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1154,7 +1154,7 @@
   <sheetData>
     <row r="1" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -1316,21 +1316,21 @@
         <v>52</v>
       </c>
       <c r="BC1" t="s">
+        <v>181</v>
+      </c>
+      <c r="BD1" t="s">
         <v>53</v>
       </c>
-      <c r="BD1" t="s">
+      <c r="BE1" t="s">
         <v>54</v>
       </c>
-      <c r="BE1" t="s">
+      <c r="BF1" t="s">
         <v>55</v>
-      </c>
-      <c r="BF1" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B2">
         <v>27</v>
@@ -1500,7 +1500,7 @@
     </row>
     <row r="3" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B3">
         <v>43</v>
@@ -1676,7 +1676,7 @@
     </row>
     <row r="4" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B4">
         <v>37</v>
@@ -1852,7 +1852,7 @@
     </row>
     <row r="5" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B5">
         <v>38</v>
@@ -2028,7 +2028,7 @@
     </row>
     <row r="6" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B6">
         <v>2</v>
@@ -2204,7 +2204,7 @@
     </row>
     <row r="7" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B7">
         <v>19</v>
@@ -2380,7 +2380,7 @@
     </row>
     <row r="8" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B8">
         <v>38</v>
@@ -2556,7 +2556,7 @@
     </row>
     <row r="9" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B9">
         <v>15</v>
@@ -2732,7 +2732,7 @@
     </row>
     <row r="10" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B10">
         <v>41</v>
@@ -2908,7 +2908,7 @@
     </row>
     <row r="11" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B11">
         <v>48</v>
@@ -3084,7 +3084,7 @@
     </row>
     <row r="12" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B12">
         <v>28</v>
@@ -3260,7 +3260,7 @@
     </row>
     <row r="13" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B13">
         <v>15</v>
@@ -3436,7 +3436,7 @@
     </row>
     <row r="14" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B14">
         <v>41</v>
@@ -3612,7 +3612,7 @@
     </row>
     <row r="15" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B15">
         <v>21</v>
@@ -3788,7 +3788,7 @@
     </row>
     <row r="16" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B16">
         <v>31</v>
@@ -3964,7 +3964,7 @@
     </row>
     <row r="17" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B17">
         <v>13</v>
@@ -4137,7 +4137,7 @@
     </row>
     <row r="18" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B18">
         <v>12</v>
@@ -4286,7 +4286,7 @@
     </row>
     <row r="19" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B19">
         <v>16</v>
@@ -4462,7 +4462,7 @@
     </row>
     <row r="20" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B20">
         <v>48</v>
@@ -4638,7 +4638,7 @@
     </row>
     <row r="21" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B21">
         <v>24</v>
@@ -4814,7 +4814,7 @@
     </row>
     <row r="22" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B22">
         <v>50</v>
@@ -4990,7 +4990,7 @@
     </row>
     <row r="23" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B23">
         <v>44</v>
@@ -5166,7 +5166,7 @@
     </row>
     <row r="24" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B24">
         <v>18</v>
@@ -5342,7 +5342,7 @@
     </row>
     <row r="25" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B25">
         <v>48</v>
@@ -5518,7 +5518,7 @@
     </row>
     <row r="26" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B26">
         <v>13</v>
@@ -5694,7 +5694,7 @@
     </row>
     <row r="27" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B27">
         <v>15</v>
@@ -5870,7 +5870,7 @@
     </row>
     <row r="28" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B28">
         <v>38</v>
@@ -6040,7 +6040,7 @@
     </row>
     <row r="29" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B29">
         <v>10</v>
@@ -6216,7 +6216,7 @@
     </row>
     <row r="30" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B30">
         <v>20</v>
@@ -6392,7 +6392,7 @@
     </row>
     <row r="31" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B31">
         <v>37</v>
@@ -6568,7 +6568,7 @@
     </row>
     <row r="32" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B32">
         <v>34</v>
@@ -6744,7 +6744,7 @@
     </row>
     <row r="33" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B33">
         <v>15</v>
@@ -6920,7 +6920,7 @@
     </row>
     <row r="34" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B34">
         <v>39</v>
@@ -7096,7 +7096,7 @@
     </row>
     <row r="35" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B35">
         <v>23</v>
@@ -7272,7 +7272,7 @@
     </row>
     <row r="36" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B36">
         <v>21</v>
@@ -7448,7 +7448,7 @@
     </row>
     <row r="37" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B37">
         <v>41</v>
@@ -7624,7 +7624,7 @@
     </row>
     <row r="38" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B38">
         <v>21</v>
@@ -7800,7 +7800,7 @@
     </row>
     <row r="39" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B39">
         <v>39</v>
@@ -7976,7 +7976,7 @@
     </row>
     <row r="40" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B40">
         <v>34</v>
@@ -8152,7 +8152,7 @@
     </row>
     <row r="41" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B41">
         <v>38</v>
@@ -8328,7 +8328,7 @@
     </row>
     <row r="42" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B42">
         <v>34</v>
@@ -8504,7 +8504,7 @@
     </row>
     <row r="43" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B43">
         <v>36</v>
@@ -8680,7 +8680,7 @@
     </row>
     <row r="44" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B44">
         <v>2</v>
@@ -8853,7 +8853,7 @@
     </row>
     <row r="45" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B45">
         <v>11</v>
@@ -9029,7 +9029,7 @@
     </row>
     <row r="46" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B46">
         <v>1</v>
@@ -9205,7 +9205,7 @@
     </row>
     <row r="47" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B47">
         <v>43</v>
@@ -9381,7 +9381,7 @@
     </row>
     <row r="48" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B48">
         <v>17</v>
@@ -9557,7 +9557,7 @@
     </row>
     <row r="49" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B49">
         <v>2</v>
@@ -9730,7 +9730,7 @@
     </row>
     <row r="50" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B50">
         <v>33</v>
@@ -9906,7 +9906,7 @@
     </row>
     <row r="51" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B51">
         <v>46</v>
@@ -10082,7 +10082,7 @@
     </row>
     <row r="52" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B52">
         <v>24</v>
@@ -10258,7 +10258,7 @@
     </row>
     <row r="53" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B53">
         <v>44</v>
@@ -10434,7 +10434,7 @@
     </row>
     <row r="54" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B54">
         <v>4</v>
@@ -10610,7 +10610,7 @@
     </row>
     <row r="55" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B55">
         <v>38</v>
@@ -10786,7 +10786,7 @@
     </row>
     <row r="56" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B56">
         <v>44</v>
@@ -10962,7 +10962,7 @@
     </row>
     <row r="57" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B57">
         <v>37</v>
@@ -11138,7 +11138,7 @@
     </row>
     <row r="58" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B58">
         <v>14</v>
@@ -11314,7 +11314,7 @@
     </row>
     <row r="59" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B59">
         <v>30</v>
@@ -11490,7 +11490,7 @@
     </row>
     <row r="60" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B60">
         <v>9</v>
@@ -11666,7 +11666,7 @@
     </row>
     <row r="61" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B61">
         <v>23</v>
@@ -11842,7 +11842,7 @@
     </row>
     <row r="62" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B62">
         <v>47</v>
@@ -12018,7 +12018,7 @@
     </row>
     <row r="63" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B63">
         <v>34</v>
@@ -12194,7 +12194,7 @@
     </row>
     <row r="64" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B64">
         <v>25</v>
@@ -12370,7 +12370,7 @@
     </row>
     <row r="65" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B65">
         <v>38</v>
@@ -12546,7 +12546,7 @@
     </row>
     <row r="66" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B66">
         <v>47</v>
@@ -12722,7 +12722,7 @@
     </row>
     <row r="67" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B67">
         <v>20</v>
@@ -12898,7 +12898,7 @@
     </row>
     <row r="68" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B68">
         <v>51</v>
@@ -13074,7 +13074,7 @@
     </row>
     <row r="69" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B69">
         <v>41</v>
@@ -13250,7 +13250,7 @@
     </row>
     <row r="70" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B70">
         <v>40</v>
@@ -13426,7 +13426,7 @@
     </row>
     <row r="71" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B71">
         <v>42</v>
@@ -13602,7 +13602,7 @@
     </row>
     <row r="72" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B72">
         <v>16</v>
@@ -13778,7 +13778,7 @@
     </row>
     <row r="73" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B73">
         <v>16</v>
@@ -13954,7 +13954,7 @@
     </row>
     <row r="74" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B74">
         <v>13</v>
@@ -14130,7 +14130,7 @@
     </row>
     <row r="75" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B75">
         <v>40</v>
@@ -14306,7 +14306,7 @@
     </row>
     <row r="76" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B76">
         <v>29</v>
@@ -14482,7 +14482,7 @@
     </row>
     <row r="77" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B77">
         <v>19</v>
@@ -14658,7 +14658,7 @@
     </row>
     <row r="78" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B78">
         <v>38</v>
@@ -14834,7 +14834,7 @@
     </row>
     <row r="79" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B79">
         <v>28</v>
@@ -15010,7 +15010,7 @@
     </row>
     <row r="80" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B80">
         <v>33</v>
@@ -15186,7 +15186,7 @@
     </row>
     <row r="81" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B81">
         <v>32</v>
@@ -15362,7 +15362,7 @@
     </row>
     <row r="82" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B82">
         <v>6</v>
@@ -15538,7 +15538,7 @@
     </row>
     <row r="83" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B83">
         <v>29</v>
@@ -15714,7 +15714,7 @@
     </row>
     <row r="84" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B84">
         <v>22</v>
@@ -15890,7 +15890,7 @@
     </row>
     <row r="85" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B85">
         <v>38</v>
@@ -16066,7 +16066,7 @@
     </row>
     <row r="86" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B86">
         <v>29</v>
@@ -16242,7 +16242,7 @@
     </row>
     <row r="87" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B87">
         <v>13</v>
@@ -16418,7 +16418,7 @@
     </row>
     <row r="88" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B88">
         <v>8</v>
@@ -16594,7 +16594,7 @@
     </row>
     <row r="89" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B89">
         <v>51</v>
@@ -16770,7 +16770,7 @@
     </row>
     <row r="90" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B90">
         <v>28</v>
@@ -16946,7 +16946,7 @@
     </row>
     <row r="91" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B91">
         <v>26</v>
@@ -17122,7 +17122,7 @@
     </row>
     <row r="92" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B92">
         <v>1</v>
@@ -17295,7 +17295,7 @@
     </row>
     <row r="93" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B93">
         <v>35</v>
@@ -17471,7 +17471,7 @@
     </row>
     <row r="94" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B94">
         <v>50</v>
@@ -17647,7 +17647,7 @@
     </row>
     <row r="95" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B95">
         <v>45</v>
@@ -17823,7 +17823,7 @@
     </row>
     <row r="96" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B96">
         <v>6</v>
@@ -17999,7 +17999,7 @@
     </row>
     <row r="97" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B97">
         <v>41</v>
@@ -18175,7 +18175,7 @@
     </row>
     <row r="98" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B98">
         <v>46</v>
@@ -18351,7 +18351,7 @@
     </row>
     <row r="99" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B99">
         <v>38</v>
@@ -18527,7 +18527,7 @@
     </row>
     <row r="100" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B100">
         <v>15</v>
@@ -18703,7 +18703,7 @@
     </row>
     <row r="101" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B101">
         <v>45</v>
@@ -18879,7 +18879,7 @@
     </row>
     <row r="102" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B102">
         <v>37</v>
@@ -19055,7 +19055,7 @@
     </row>
     <row r="103" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B103">
         <v>28</v>
@@ -19231,7 +19231,7 @@
     </row>
     <row r="104" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B104">
         <v>4</v>
@@ -19407,7 +19407,7 @@
     </row>
     <row r="105" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B105">
         <v>39</v>
@@ -19583,7 +19583,7 @@
     </row>
     <row r="106" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B106">
         <v>45</v>
@@ -19759,7 +19759,7 @@
     </row>
     <row r="107" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B107">
         <v>29</v>
@@ -19935,7 +19935,7 @@
     </row>
     <row r="108" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B108">
         <v>5</v>
@@ -20111,7 +20111,7 @@
     </row>
     <row r="109" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B109">
         <v>17</v>
@@ -20287,7 +20287,7 @@
     </row>
     <row r="110" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B110">
         <v>4</v>
@@ -20463,7 +20463,7 @@
     </row>
     <row r="111" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B111">
         <v>2</v>
@@ -20639,7 +20639,7 @@
     </row>
     <row r="112" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B112">
         <v>47</v>
@@ -20815,7 +20815,7 @@
     </row>
     <row r="113" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B113">
         <v>42</v>
@@ -20991,7 +20991,7 @@
     </row>
     <row r="114" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B114">
         <v>20</v>
@@ -21161,7 +21161,7 @@
     </row>
     <row r="115" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B115">
         <v>14</v>
@@ -21337,7 +21337,7 @@
     </row>
     <row r="116" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B116">
         <v>20</v>
@@ -21513,7 +21513,7 @@
     </row>
     <row r="117" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B117">
         <v>20</v>
@@ -21689,7 +21689,7 @@
     </row>
     <row r="118" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B118">
         <v>48</v>
@@ -21865,7 +21865,7 @@
     </row>
     <row r="119" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B119">
         <v>38</v>
@@ -22041,7 +22041,7 @@
     </row>
     <row r="120" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B120">
         <v>3</v>
@@ -22217,7 +22217,7 @@
     </row>
     <row r="121" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B121">
         <v>29</v>
@@ -22393,7 +22393,7 @@
     </row>
     <row r="122" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B122">
         <v>17</v>
@@ -22569,7 +22569,7 @@
     </row>
     <row r="123" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B123">
         <v>41</v>
@@ -22745,7 +22745,7 @@
     </row>
     <row r="124" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B124">
         <v>21</v>
@@ -22921,7 +22921,7 @@
     </row>
     <row r="125" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B125">
         <v>14</v>
